--- a/KW2CPU.PCB Production Files/KW2CPU.PCB.ECO.xlsx
+++ b/KW2CPU.PCB Production Files/KW2CPU.PCB.ECO.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KW2CPU.PCB Production Files/KW2CPU.PCB.ECO.xlsx
+++ b/KW2CPU.PCB Production Files/KW2CPU.PCB.ECO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Change</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>First articles release of new KW2CPU.PCB</t>
+  </si>
+  <si>
+    <t>KW2CPU.PCB.v1.1</t>
+  </si>
+  <si>
+    <t>Missing inner layer, minor fixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exported missing Gerber inner layer using GW CAM file; amended suffix on BOM part numbers for IC1, U4 and U1;  added tented vias and F-Antenna GND-hole + signal pad  in Eagle </t>
   </si>
 </sst>
 </file>
@@ -391,18 +400,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="163.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,6 +447,23 @@
       </c>
       <c r="E2" s="2">
         <v>41965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>41992</v>
       </c>
     </row>
   </sheetData>

--- a/KW2CPU.PCB Production Files/KW2CPU.PCB.ECO.xlsx
+++ b/KW2CPU.PCB Production Files/KW2CPU.PCB.ECO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Change</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t xml:space="preserve">Exported missing Gerber inner layer using GW CAM file; amended suffix on BOM part numbers for IC1, U4 and U1;  added tented vias and F-Antenna GND-hole + signal pad  in Eagle </t>
+  </si>
+  <si>
+    <t>KW2CPU.PCB.v1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supplies insufficient power</t>
+  </si>
+  <si>
+    <t>DNP U4 (MCP1804) voltage regulator.</t>
   </si>
 </sst>
 </file>
@@ -400,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +475,23 @@
         <v>41992</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42041</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KW2CPU.PCB Production Files/KW2CPU.PCB.ECO.xlsx
+++ b/KW2CPU.PCB Production Files/KW2CPU.PCB.ECO.xlsx
@@ -67,7 +67,7 @@
     <t>KW2CPU.PCB.v1.3</t>
   </si>
   <si>
-    <t>Changed mounting hole location, removed PCB antenna, replaced SMA with 2x U.FL, adjusted match network, removed top JTAG, added Tps and keepout for RF foam shield</t>
+    <t>Changed mounting hole location, removed PCB antenna, replaced SMA with 2x U.FL, adjusted match network, removed top JTAG, added Tps and keepout + vias for RF foam shield</t>
   </si>
   <si>
     <t>Jeff Williams, Rafael Send</t>
@@ -196,7 +196,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -209,7 +209,7 @@
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -313,7 +313,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:D A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -339,7 +339,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:D A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
